--- a/evaluation/CCL_ARM_vs_X64.xlsx
+++ b/evaluation/CCL_ARM_vs_X64.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
@@ -8,9 +8,11 @@
   <sheets>
     <sheet name="Kosten" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Benchmark" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="160" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="161" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -139,17 +141,16 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,6 +298,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-26"/>
         <c:axId val="1866169559"/>
@@ -642,6 +651,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-26"/>
         <c:axId val="1998337619"/>
@@ -1098,6 +1115,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-26"/>
         <c:axId val="1998337649"/>
@@ -3028,7 +3053,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1200149</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3052,7 +3077,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>66673</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
@@ -3060,7 +3085,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3086,11 +3111,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
+      <xdr:rowOff>39686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1111249</xdr:colOff>
+      <xdr:colOff>1111248</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
@@ -3660,11 +3685,6 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
     </row>
     <row r="3" ht="15">
       <c r="A3" t="s">
@@ -3679,7 +3699,7 @@
       <c r="D3" s="2">
         <v>28.98</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>126.27</v>
       </c>
       <c r="F3" s="2">
@@ -3690,7 +3710,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.19</v>
       </c>
       <c r="C4" s="2">
@@ -3699,7 +3719,7 @@
       <c r="D4" s="2">
         <v>31.890000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>138.93000000000001</v>
       </c>
       <c r="F4" s="2">
@@ -3735,7 +3755,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>B3/B4</f>
         <v>0.89473684210526316</v>
       </c>
@@ -3760,11 +3780,6 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
     </row>
     <row r="8" ht="15">
       <c r="A8" t="s">
@@ -3856,11 +3871,6 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
     </row>
     <row r="13" ht="30">
       <c r="A13" t="s">
@@ -3966,7 +3976,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4004,8 +4014,8 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4014,15 +4024,13 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>123754.71859999999</v>
       </c>
       <c r="C3">
         <v>31025.549729999999</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
@@ -4039,12 +4047,12 @@
       <c r="B4">
         <v>87207.889509999994</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>28940.339759999999</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4060,27 +4068,27 @@
         <f>C3/C4</f>
         <v>1.0720520210644549</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.90887497299999997</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
@@ -4094,8 +4102,8 @@
         <f>C5/$B$6</f>
         <v>1.1795373983352657</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" t="s">
         <v>24</v>
       </c>
@@ -4104,8 +4112,8 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4120,13 +4128,13 @@
       <c r="C9">
         <v>22086.276819999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1778.6225850000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2064.8600000000001</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G9">
@@ -4146,13 +4154,13 @@
       <c r="C10">
         <v>27113.877639999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2902.4964759999998</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>3275.9974999999999</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G10">
@@ -4174,15 +4182,15 @@
         <f>C9/C10</f>
         <v>0.81457462902381084</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>D9/D10</f>
         <v>0.61279060963793575</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f>E9/E10</f>
         <v>0.63029962629702863</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G11">
@@ -4201,9 +4209,9 @@
       <c r="B12">
         <v>0.89060832400000001</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4219,15 +4227,15 @@
         <f>C11/$B$12</f>
         <v>0.91462723519728839</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f>D11/$B$12</f>
         <v>0.6880584799451479</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f>E11/$B$12</f>
         <v>0.70771809482551906</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G13">
@@ -4243,8 +4251,8 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4253,22 +4261,22 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>97187.633579999994</v>
       </c>
       <c r="C15">
         <v>24301.337739999999</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2106.7977999999998</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2551.0300000000002</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>2106.7977999999998</v>
       </c>
       <c r="H15">
@@ -4279,22 +4287,22 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>86751.061170000001</v>
       </c>
       <c r="C16">
         <v>29641.207470000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2874.7257399999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>3570.8825000000002</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>2874.7257399999999</v>
       </c>
       <c r="H16">
@@ -4313,15 +4321,15 @@
         <f>C15/C16</f>
         <v>0.81984979068735619</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f>D15/D16</f>
         <v>0.73286914667553638</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f>E15/E16</f>
         <v>0.71439763139784074</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G17">
@@ -4334,20 +4342,20 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18">
         <v>0.80934236500000001</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19">
@@ -4358,11 +4366,11 @@
         <f>C17/$B$18</f>
         <v>1.0129826710447267</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f>D17/$B$18</f>
         <v>0.90551190493473843</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f>E17/$B$18</f>
         <v>0.88268903531058918</v>
       </c>
@@ -4378,34 +4386,13 @@
         <v>0.88268903531058918</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
-      <c r="A34"/>
-      <c r="B34"/>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36"/>
-      <c r="B36"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25"/>
+    <row r="40" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -4413,20 +4400,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
 </file>